--- a/random-forest/test/mun-test.xlsx
+++ b/random-forest/test/mun-test.xlsx
@@ -1284,7 +1284,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1302,12 +1302,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1402,7 +1396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1425,7 +1419,7 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -1433,9 +1427,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1754,25 +1745,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="14" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="14" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="12" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="12" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -7196,7 +7187,7 @@
       <c r="Q92" s="7">
         <v>11.88777777777778</v>
       </c>
-      <c r="R92" s="11">
+      <c r="R92" s="8">
         <v>5</v>
       </c>
       <c r="S92" s="9">
@@ -7491,7 +7482,7 @@
       <c r="Q97" s="7">
         <v>11.88555555555556</v>
       </c>
-      <c r="R97" s="11">
+      <c r="R97" s="8">
         <v>6</v>
       </c>
       <c r="S97" s="9">
@@ -9497,7 +9488,7 @@
       <c r="Q131" s="7">
         <v>11.88722222222222</v>
       </c>
-      <c r="R131" s="11">
+      <c r="R131" s="8">
         <v>10</v>
       </c>
       <c r="S131" s="9">
@@ -10205,7 +10196,7 @@
       <c r="Q143" s="7">
         <v>11.735</v>
       </c>
-      <c r="R143" s="11">
+      <c r="R143" s="8">
         <v>5</v>
       </c>
       <c r="S143" s="9">
@@ -10264,7 +10255,7 @@
       <c r="Q144" s="7">
         <v>11.735</v>
       </c>
-      <c r="R144" s="11">
+      <c r="R144" s="8">
         <v>5</v>
       </c>
       <c r="S144" s="9">
@@ -10323,7 +10314,7 @@
       <c r="Q145" s="7">
         <v>11.73638888888889</v>
       </c>
-      <c r="R145" s="11">
+      <c r="R145" s="8">
         <v>6</v>
       </c>
       <c r="S145" s="9">
@@ -10500,7 +10491,7 @@
       <c r="Q148" s="7">
         <v>11.73444444444444</v>
       </c>
-      <c r="R148" s="11">
+      <c r="R148" s="8">
         <v>4</v>
       </c>
       <c r="S148" s="9">
@@ -10559,7 +10550,7 @@
       <c r="Q149" s="7">
         <v>11.73444444444444</v>
       </c>
-      <c r="R149" s="11">
+      <c r="R149" s="8">
         <v>4</v>
       </c>
       <c r="S149" s="9">
@@ -10618,7 +10609,7 @@
       <c r="Q150" s="7">
         <v>11.73472222222222</v>
       </c>
-      <c r="R150" s="11">
+      <c r="R150" s="8">
         <v>6</v>
       </c>
       <c r="S150" s="9">
@@ -10854,7 +10845,7 @@
       <c r="Q154" s="7">
         <v>11.73361111111111</v>
       </c>
-      <c r="R154" s="11">
+      <c r="R154" s="8">
         <v>6</v>
       </c>
       <c r="S154" s="9">
@@ -10913,7 +10904,7 @@
       <c r="Q155" s="7">
         <v>11.73388888888889</v>
       </c>
-      <c r="R155" s="11">
+      <c r="R155" s="8">
         <v>4</v>
       </c>
       <c r="S155" s="9">
@@ -10972,7 +10963,7 @@
       <c r="Q156" s="7">
         <v>11.73333333333333</v>
       </c>
-      <c r="R156" s="11">
+      <c r="R156" s="8">
         <v>4</v>
       </c>
       <c r="S156" s="9">
@@ -11149,7 +11140,7 @@
       <c r="Q159" s="7">
         <v>11.73027777777778</v>
       </c>
-      <c r="R159" s="11">
+      <c r="R159" s="8">
         <v>4</v>
       </c>
       <c r="S159" s="9">
@@ -11208,7 +11199,7 @@
       <c r="Q160" s="7">
         <v>11.73</v>
       </c>
-      <c r="R160" s="11">
+      <c r="R160" s="8">
         <v>4</v>
       </c>
       <c r="S160" s="9">
@@ -11267,7 +11258,7 @@
       <c r="Q161" s="7">
         <v>11.72972222222222</v>
       </c>
-      <c r="R161" s="11">
+      <c r="R161" s="8">
         <v>6</v>
       </c>
       <c r="S161" s="9">
@@ -11326,7 +11317,7 @@
       <c r="Q162" s="7">
         <v>11.72944444444444</v>
       </c>
-      <c r="R162" s="11">
+      <c r="R162" s="8">
         <v>4</v>
       </c>
       <c r="S162" s="9">
@@ -11385,7 +11376,7 @@
       <c r="Q163" s="7">
         <v>11.72944444444444</v>
       </c>
-      <c r="R163" s="11">
+      <c r="R163" s="8">
         <v>6</v>
       </c>
       <c r="S163" s="9">
@@ -11444,7 +11435,7 @@
       <c r="Q164" s="7">
         <v>11.73</v>
       </c>
-      <c r="R164" s="11">
+      <c r="R164" s="8">
         <v>4</v>
       </c>
       <c r="S164" s="9">
@@ -11503,7 +11494,7 @@
       <c r="Q165" s="7">
         <v>12.55083333333333</v>
       </c>
-      <c r="R165" s="11">
+      <c r="R165" s="8">
         <v>4</v>
       </c>
       <c r="S165" s="9">
@@ -12742,7 +12733,7 @@
       <c r="Q186" s="7">
         <v>11.90166666666667</v>
       </c>
-      <c r="R186" s="11">
+      <c r="R186" s="8">
         <v>10</v>
       </c>
       <c r="S186" s="9">
@@ -12801,7 +12792,7 @@
       <c r="Q187" s="7">
         <v>11.905</v>
       </c>
-      <c r="R187" s="11">
+      <c r="R187" s="8">
         <v>10</v>
       </c>
       <c r="S187" s="9">
@@ -12860,7 +12851,7 @@
       <c r="Q188" s="7">
         <v>11.90444444444444</v>
       </c>
-      <c r="R188" s="11">
+      <c r="R188" s="8">
         <v>10</v>
       </c>
       <c r="S188" s="9">
